--- a/MyStoreTestScenarios.xlsx
+++ b/MyStoreTestScenarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t xml:space="preserve">Reference </t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Azar Tamboli</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t xml:space="preserve">Test Scenario ID </t>
@@ -184,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -203,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +487,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -545,8 +545,8 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" s="7">
+        <v>45166</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -555,15 +555,13 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>0</v>
@@ -583,19 +581,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -603,19 +601,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -623,19 +621,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -643,19 +641,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -663,19 +661,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
